--- a/Code/Results/Cases/Case_2_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_241/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.15073601334203</v>
+        <v>15.62872253016054</v>
       </c>
       <c r="C2">
-        <v>19.51863257778815</v>
+        <v>10.97206875514792</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.0250276199528</v>
+        <v>23.88969109535498</v>
       </c>
       <c r="F2">
-        <v>36.1750989863185</v>
+        <v>39.82592705794573</v>
       </c>
       <c r="G2">
-        <v>22.68622165691909</v>
+        <v>25.07726275764634</v>
       </c>
       <c r="H2">
-        <v>7.824349298160501</v>
+        <v>13.18586315583154</v>
       </c>
       <c r="I2">
-        <v>9.326830652099401</v>
+        <v>17.72277532159539</v>
       </c>
       <c r="J2">
-        <v>4.159470650051874</v>
+        <v>7.663857844816457</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.46662753647332</v>
+        <v>14.85001136982871</v>
       </c>
       <c r="C3">
-        <v>18.21702555519025</v>
+        <v>10.25671156437281</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.71359613894977</v>
+        <v>23.60183170246736</v>
       </c>
       <c r="F3">
-        <v>34.36669372403826</v>
+        <v>39.62542244807391</v>
       </c>
       <c r="G3">
-        <v>21.70352297798254</v>
+        <v>25.17379221869006</v>
       </c>
       <c r="H3">
-        <v>7.889603757498633</v>
+        <v>13.27580412732864</v>
       </c>
       <c r="I3">
-        <v>9.808434609919132</v>
+        <v>17.9259863234315</v>
       </c>
       <c r="J3">
-        <v>4.236098012762082</v>
+        <v>7.701038358373495</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.3742445771936</v>
+        <v>14.35105579784221</v>
       </c>
       <c r="C4">
-        <v>17.37398590344246</v>
+        <v>9.802534016157381</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.87866021201934</v>
+        <v>23.42715513978223</v>
       </c>
       <c r="F4">
-        <v>33.25437811595479</v>
+        <v>39.51598614065925</v>
       </c>
       <c r="G4">
-        <v>21.16116961838258</v>
+        <v>25.25273898077442</v>
       </c>
       <c r="H4">
-        <v>7.946018734180924</v>
+        <v>13.33534938594793</v>
       </c>
       <c r="I4">
-        <v>10.12614175564958</v>
+        <v>18.05761427594968</v>
       </c>
       <c r="J4">
-        <v>4.286545201413385</v>
+        <v>7.725255727264973</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.91430541210561</v>
+        <v>14.14271337664081</v>
       </c>
       <c r="C5">
-        <v>17.01932523768309</v>
+        <v>9.615363806136864</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.53118281375843</v>
+        <v>23.35656468224052</v>
       </c>
       <c r="F5">
-        <v>32.80111960469109</v>
+        <v>39.47485866891193</v>
       </c>
       <c r="G5">
-        <v>20.9555265009717</v>
+        <v>25.28978599932364</v>
       </c>
       <c r="H5">
-        <v>7.972803376377819</v>
+        <v>13.36069574935698</v>
       </c>
       <c r="I5">
-        <v>10.26057658942942</v>
+        <v>18.1129756864495</v>
       </c>
       <c r="J5">
-        <v>4.307916320877113</v>
+        <v>7.735473776916225</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.83703674888078</v>
+        <v>14.10782269513724</v>
       </c>
       <c r="C6">
-        <v>16.95976039325264</v>
+        <v>9.583920540413821</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.47305584372538</v>
+        <v>23.34488098172634</v>
       </c>
       <c r="F6">
-        <v>32.72587427495722</v>
+        <v>39.46823974544179</v>
       </c>
       <c r="G6">
-        <v>20.92230597385801</v>
+        <v>25.29622987414223</v>
       </c>
       <c r="H6">
-        <v>7.97747119334956</v>
+        <v>13.36496963886638</v>
       </c>
       <c r="I6">
-        <v>10.28318504594043</v>
+        <v>18.12227235698197</v>
       </c>
       <c r="J6">
-        <v>4.311513013546814</v>
+        <v>7.737191576554614</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.36810168358421</v>
+        <v>14.34826599877582</v>
       </c>
       <c r="C7">
-        <v>17.36924794040974</v>
+        <v>9.800034206367508</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.8740029365108</v>
+        <v>23.42620064346348</v>
       </c>
       <c r="F7">
-        <v>33.24826449217683</v>
+        <v>39.51541740141168</v>
       </c>
       <c r="G7">
-        <v>21.15833407640925</v>
+        <v>25.25321896891759</v>
       </c>
       <c r="H7">
-        <v>7.946365002386909</v>
+        <v>13.33568684531633</v>
       </c>
       <c r="I7">
-        <v>10.12793534291096</v>
+        <v>18.05835392964152</v>
       </c>
       <c r="J7">
-        <v>4.286830176313948</v>
+        <v>7.725392117046284</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.58208950395251</v>
+        <v>15.36466689852039</v>
       </c>
       <c r="C8">
-        <v>19.07888159640633</v>
+        <v>10.73113941484857</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.57913350386335</v>
+        <v>23.79005041176231</v>
       </c>
       <c r="F8">
-        <v>35.55223920523493</v>
+        <v>39.75397495066562</v>
       </c>
       <c r="G8">
-        <v>22.33477345689694</v>
+        <v>25.1064203436458</v>
       </c>
       <c r="H8">
-        <v>7.843261885444054</v>
+        <v>13.21597467713905</v>
       </c>
       <c r="I8">
-        <v>9.487941550025747</v>
+        <v>17.79141836377424</v>
       </c>
       <c r="J8">
-        <v>4.185160291052317</v>
+        <v>7.676389617447153</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.4666400268766</v>
+        <v>17.18460746713687</v>
       </c>
       <c r="C9">
-        <v>22.08820473914535</v>
+        <v>12.36371520886841</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.68018753070691</v>
+        <v>24.51682878744608</v>
       </c>
       <c r="F9">
-        <v>40.03800841321666</v>
+        <v>40.32866664121408</v>
       </c>
       <c r="G9">
-        <v>25.11982214377414</v>
+        <v>24.97759491964827</v>
       </c>
       <c r="H9">
-        <v>7.785496979927713</v>
+        <v>13.01575120956964</v>
       </c>
       <c r="I9">
-        <v>8.44064014855617</v>
+        <v>17.32244981053342</v>
       </c>
       <c r="J9">
-        <v>4.014891262609723</v>
+        <v>7.59130512821139</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.0507930833235</v>
+        <v>18.40752784326486</v>
       </c>
       <c r="C10">
-        <v>24.09722202124413</v>
+        <v>13.43119624613443</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>27.80566921780727</v>
+        <v>25.05464145929913</v>
       </c>
       <c r="F10">
-        <v>43.29974850328402</v>
+        <v>40.81348072246748</v>
       </c>
       <c r="G10">
-        <v>27.58256806079203</v>
+        <v>24.98336997222192</v>
       </c>
       <c r="H10">
-        <v>7.851679874164009</v>
+        <v>12.8900408395083</v>
       </c>
       <c r="I10">
-        <v>7.858447083331208</v>
+        <v>17.01126391411006</v>
       </c>
       <c r="J10">
-        <v>3.911056301579765</v>
+        <v>7.535495671474464</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.16995944432405</v>
+        <v>18.93775795488071</v>
       </c>
       <c r="C11">
-        <v>24.96918294475622</v>
+        <v>13.88843278109591</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.73950072531678</v>
+        <v>25.29924879046634</v>
       </c>
       <c r="F11">
-        <v>44.77562596917796</v>
+        <v>41.04696450701441</v>
       </c>
       <c r="G11">
-        <v>28.78890737650436</v>
+        <v>25.0083762489916</v>
       </c>
       <c r="H11">
-        <v>7.909804046697044</v>
+        <v>12.83757338746085</v>
       </c>
       <c r="I11">
-        <v>7.652530791035583</v>
+        <v>16.87698195274308</v>
       </c>
       <c r="J11">
-        <v>3.869394804175128</v>
+        <v>7.511560258710674</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.58584693832016</v>
+        <v>19.13470827436996</v>
       </c>
       <c r="C12">
-        <v>25.29351109829161</v>
+        <v>14.05751860134321</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>29.08843542473101</v>
+        <v>25.39179507691565</v>
       </c>
       <c r="F12">
-        <v>45.33347279542726</v>
+        <v>41.13717648037725</v>
       </c>
       <c r="G12">
-        <v>29.25207278772582</v>
+        <v>25.02109775610104</v>
       </c>
       <c r="H12">
-        <v>7.936198399362321</v>
+        <v>12.81839042604793</v>
       </c>
       <c r="I12">
-        <v>7.584925110025588</v>
+        <v>16.82718376689859</v>
       </c>
       <c r="J12">
-        <v>3.854516136651247</v>
+        <v>7.502705395558404</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.49662699201369</v>
+        <v>19.09246331103429</v>
       </c>
       <c r="C13">
-        <v>25.22391918482852</v>
+        <v>14.02128319407013</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>29.01349296825204</v>
+        <v>25.37186835940546</v>
       </c>
       <c r="F13">
-        <v>45.21337363648548</v>
+        <v>41.11766887077396</v>
       </c>
       <c r="G13">
-        <v>29.152039020224</v>
+        <v>25.01821286764853</v>
       </c>
       <c r="H13">
-        <v>7.93031339999154</v>
+        <v>12.8224912310275</v>
       </c>
       <c r="I13">
-        <v>7.598990959197316</v>
+        <v>16.83786184890942</v>
       </c>
       <c r="J13">
-        <v>3.857678915957741</v>
+        <v>7.504603153775339</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.20433226370601</v>
+        <v>18.95403849412775</v>
       </c>
       <c r="C14">
-        <v>24.9959821244147</v>
+        <v>13.90242482555253</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>28.76830117215546</v>
+        <v>25.30686467780005</v>
       </c>
       <c r="F14">
-        <v>44.82154010368222</v>
+        <v>41.05435067253769</v>
       </c>
       <c r="G14">
-        <v>28.8268849076805</v>
+        <v>25.00935751470596</v>
       </c>
       <c r="H14">
-        <v>7.911885673202273</v>
+        <v>12.83598141959448</v>
       </c>
       <c r="I14">
-        <v>7.646749178554178</v>
+        <v>16.87286392294353</v>
       </c>
       <c r="J14">
-        <v>3.868152135275447</v>
+        <v>7.510827575416883</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.02426829132268</v>
+        <v>18.86874743416448</v>
       </c>
       <c r="C15">
-        <v>24.85560565158631</v>
+        <v>13.8290925199544</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>28.61750654252698</v>
+        <v>25.26703528595321</v>
       </c>
       <c r="F15">
-        <v>44.58140095925796</v>
+        <v>41.01579846470557</v>
       </c>
       <c r="G15">
-        <v>28.6285459308371</v>
+        <v>25.00435773622098</v>
       </c>
       <c r="H15">
-        <v>7.901179419232504</v>
+        <v>12.84433400183832</v>
       </c>
       <c r="I15">
-        <v>7.677413895328149</v>
+        <v>16.89444079163945</v>
       </c>
       <c r="J15">
-        <v>3.874687281505549</v>
+        <v>7.514667428684361</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.97653436171797</v>
+        <v>18.3723435027261</v>
       </c>
       <c r="C16">
-        <v>24.03940711930366</v>
+        <v>13.4007456103532</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>27.74398049843452</v>
+        <v>25.03864845574547</v>
       </c>
       <c r="F16">
-        <v>43.20314316249498</v>
+        <v>40.7984770155357</v>
       </c>
       <c r="G16">
-        <v>27.50462050031564</v>
+        <v>24.98218920422526</v>
       </c>
       <c r="H16">
-        <v>7.848475720538921</v>
+        <v>12.89356524096795</v>
       </c>
       <c r="I16">
-        <v>7.873245780723518</v>
+        <v>17.02018641688262</v>
       </c>
       <c r="J16">
-        <v>3.913899033144065</v>
+        <v>7.537089142823626</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.31947406404629</v>
+        <v>18.06106901266788</v>
       </c>
       <c r="C17">
-        <v>23.52806510679835</v>
+        <v>13.13071710528637</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>27.1996653387646</v>
+        <v>24.89847515627588</v>
       </c>
       <c r="F17">
-        <v>42.35563467849757</v>
+        <v>40.66842734474772</v>
       </c>
       <c r="G17">
-        <v>26.8264757608944</v>
+        <v>24.97434854899977</v>
       </c>
       <c r="H17">
-        <v>7.823575742829717</v>
+        <v>12.92498038798724</v>
       </c>
       <c r="I17">
-        <v>8.00973526410881</v>
+        <v>17.09919470117226</v>
       </c>
       <c r="J17">
-        <v>3.939445742193332</v>
+        <v>7.55121622789921</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.93623143065054</v>
+        <v>17.8795811012832</v>
       </c>
       <c r="C18">
-        <v>23.22999500242154</v>
+        <v>12.972732749594</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>26.88347074392654</v>
+        <v>24.81785119381329</v>
       </c>
       <c r="F18">
-        <v>41.86741254019168</v>
+        <v>40.5948482545371</v>
       </c>
       <c r="G18">
-        <v>26.44062644301975</v>
+        <v>24.9719437835512</v>
       </c>
       <c r="H18">
-        <v>7.811870357549601</v>
+        <v>12.9434932956913</v>
       </c>
       <c r="I18">
-        <v>8.093654634447976</v>
+        <v>17.14532289909831</v>
       </c>
       <c r="J18">
-        <v>3.954657581537657</v>
+        <v>7.559478471885164</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.80555299978492</v>
+        <v>17.81771433036539</v>
       </c>
       <c r="C19">
-        <v>23.12838867007935</v>
+        <v>12.91878261319079</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>26.77587575493612</v>
+        <v>24.79055560329298</v>
       </c>
       <c r="F19">
-        <v>41.70197773326906</v>
+        <v>40.5701474020355</v>
       </c>
       <c r="G19">
-        <v>26.31071062444326</v>
+        <v>24.97148991208572</v>
       </c>
       <c r="H19">
-        <v>7.808345484076476</v>
+        <v>12.94983745787398</v>
       </c>
       <c r="I19">
-        <v>8.122945004428724</v>
+        <v>17.16105857479113</v>
       </c>
       <c r="J19">
-        <v>3.959894321133941</v>
+        <v>7.562299405285511</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.38996841746723</v>
+        <v>18.09445906231415</v>
       </c>
       <c r="C20">
-        <v>23.58290699032863</v>
+        <v>13.15973841026464</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27.25793107905298</v>
+        <v>24.91339738690441</v>
       </c>
       <c r="F20">
-        <v>42.44593148413371</v>
+        <v>40.68214532744297</v>
       </c>
       <c r="G20">
-        <v>26.89823155510121</v>
+        <v>24.97496506759913</v>
       </c>
       <c r="H20">
-        <v>7.825952988450936</v>
+        <v>12.92159021750803</v>
       </c>
       <c r="I20">
-        <v>7.994632518380207</v>
+        <v>17.09071323462723</v>
       </c>
       <c r="J20">
-        <v>3.936671983572694</v>
+        <v>7.549698225311439</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.29039955706553</v>
+        <v>18.99480193629631</v>
       </c>
       <c r="C21">
-        <v>25.06309049731762</v>
+        <v>13.93744643531196</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>28.84044637674724</v>
+        <v>25.32596062467507</v>
       </c>
       <c r="F21">
-        <v>44.93665780297669</v>
+        <v>41.07290053007516</v>
       </c>
       <c r="G21">
-        <v>28.92221807166606</v>
+        <v>25.01187005825841</v>
       </c>
       <c r="H21">
-        <v>7.917176592888973</v>
+        <v>12.83200037019549</v>
       </c>
       <c r="I21">
-        <v>7.632423541155009</v>
+        <v>16.86255438691141</v>
       </c>
       <c r="J21">
-        <v>3.865050697540873</v>
+        <v>7.508993640080643</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.48639909585616</v>
+        <v>19.56083839169995</v>
       </c>
       <c r="C22">
-        <v>25.99638440483308</v>
+        <v>14.42206938895016</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>29.84745746364221</v>
+        <v>25.59508787123381</v>
       </c>
       <c r="F22">
-        <v>46.55858979726958</v>
+        <v>41.33872182182154</v>
       </c>
       <c r="G22">
-        <v>30.2820987010877</v>
+        <v>25.05495489382851</v>
       </c>
       <c r="H22">
-        <v>8.002505123782697</v>
+        <v>12.77744604356255</v>
       </c>
       <c r="I22">
-        <v>7.457199923116466</v>
+        <v>16.71957085541739</v>
       </c>
       <c r="J22">
-        <v>3.823529411413107</v>
+        <v>7.483608864072858</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.8522168460466</v>
+        <v>19.2608069130902</v>
       </c>
       <c r="C23">
-        <v>25.50132694060132</v>
+        <v>14.16557496098377</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>29.31245574960188</v>
+        <v>25.45152015172026</v>
       </c>
       <c r="F23">
-        <v>45.69340820424996</v>
+        <v>41.19591491592674</v>
       </c>
       <c r="G23">
-        <v>29.55289783104805</v>
+        <v>25.0302155539773</v>
       </c>
       <c r="H23">
-        <v>7.954497310993203</v>
+        <v>12.80619464768323</v>
       </c>
       <c r="I23">
-        <v>7.544400566644111</v>
+        <v>16.79532107474123</v>
       </c>
       <c r="J23">
-        <v>3.845170713347359</v>
+        <v>7.497045714910502</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.35811503433186</v>
+        <v>18.07937130101378</v>
       </c>
       <c r="C24">
-        <v>23.5581257353168</v>
+        <v>13.14662641858979</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>27.23159929825497</v>
+        <v>24.90665115434684</v>
       </c>
       <c r="F24">
-        <v>42.40511135127087</v>
+        <v>40.67593972152665</v>
       </c>
       <c r="G24">
-        <v>26.86577821563141</v>
+        <v>24.97467979184872</v>
       </c>
       <c r="H24">
-        <v>7.824870133409132</v>
+        <v>12.92312150637319</v>
       </c>
       <c r="I24">
-        <v>8.001443635547641</v>
+        <v>17.09454550907922</v>
       </c>
       <c r="J24">
-        <v>3.937924372624559</v>
+        <v>7.55038407697084</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.46383359063259</v>
+        <v>16.71180009634475</v>
       </c>
       <c r="C25">
-        <v>21.31014301785079</v>
+        <v>11.94532545952756</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24.86797265892471</v>
+        <v>24.31923391612025</v>
       </c>
       <c r="F25">
-        <v>38.82985071834682</v>
+        <v>40.1619980372956</v>
       </c>
       <c r="G25">
-        <v>24.31630118169521</v>
+        <v>24.99503138413772</v>
       </c>
       <c r="H25">
-        <v>7.78355510777307</v>
+        <v>13.06618522581426</v>
       </c>
       <c r="I25">
-        <v>8.696334386443651</v>
+        <v>17.44347100764977</v>
       </c>
       <c r="J25">
-        <v>4.057507514407548</v>
+        <v>7.61314518528953</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_241/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.62872253016054</v>
+        <v>25.1507360133421</v>
       </c>
       <c r="C2">
-        <v>10.97206875514792</v>
+        <v>19.5186325777881</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.88969109535498</v>
+        <v>23.02502761995278</v>
       </c>
       <c r="F2">
-        <v>39.82592705794573</v>
+        <v>36.1750989863185</v>
       </c>
       <c r="G2">
-        <v>25.07726275764634</v>
+        <v>22.68622165691913</v>
       </c>
       <c r="H2">
-        <v>13.18586315583154</v>
+        <v>7.82434929816039</v>
       </c>
       <c r="I2">
-        <v>17.72277532159539</v>
+        <v>9.326830652099257</v>
       </c>
       <c r="J2">
-        <v>7.663857844816457</v>
+        <v>4.159470650051818</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.85001136982871</v>
+        <v>23.46662753647329</v>
       </c>
       <c r="C3">
-        <v>10.25671156437281</v>
+        <v>18.21702555519031</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.60183170246736</v>
+        <v>21.71359613894975</v>
       </c>
       <c r="F3">
-        <v>39.62542244807391</v>
+        <v>34.36669372403826</v>
       </c>
       <c r="G3">
-        <v>25.17379221869006</v>
+        <v>21.70352297798264</v>
       </c>
       <c r="H3">
-        <v>13.27580412732864</v>
+        <v>7.889603757498644</v>
       </c>
       <c r="I3">
-        <v>17.9259863234315</v>
+        <v>9.808434609919228</v>
       </c>
       <c r="J3">
-        <v>7.701038358373495</v>
+        <v>4.236098012762112</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.35105579784221</v>
+        <v>22.37424457719348</v>
       </c>
       <c r="C4">
-        <v>9.802534016157381</v>
+        <v>17.37398590344243</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.42715513978223</v>
+        <v>20.87866021201926</v>
       </c>
       <c r="F4">
-        <v>39.51598614065925</v>
+        <v>33.25437811595485</v>
       </c>
       <c r="G4">
-        <v>25.25273898077442</v>
+        <v>21.16116961838291</v>
       </c>
       <c r="H4">
-        <v>13.33534938594793</v>
+        <v>7.946018734181028</v>
       </c>
       <c r="I4">
-        <v>18.05761427594968</v>
+        <v>10.12614175564987</v>
       </c>
       <c r="J4">
-        <v>7.725255727264973</v>
+        <v>4.286545201413388</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.14271337664081</v>
+        <v>21.91430541210558</v>
       </c>
       <c r="C5">
-        <v>9.615363806136864</v>
+        <v>17.01932523768314</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.35656468224052</v>
+        <v>20.53118281375838</v>
       </c>
       <c r="F5">
-        <v>39.47485866891193</v>
+        <v>32.80111960469111</v>
       </c>
       <c r="G5">
-        <v>25.28978599932364</v>
+        <v>20.95552650097181</v>
       </c>
       <c r="H5">
-        <v>13.36069574935698</v>
+        <v>7.972803376377937</v>
       </c>
       <c r="I5">
-        <v>18.1129756864495</v>
+        <v>10.2605765894295</v>
       </c>
       <c r="J5">
-        <v>7.735473776916225</v>
+        <v>4.307916320877148</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.10782269513724</v>
+        <v>21.83703674888081</v>
       </c>
       <c r="C6">
-        <v>9.583920540413821</v>
+        <v>16.95976039325261</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.34488098172634</v>
+        <v>20.47305584372531</v>
       </c>
       <c r="F6">
-        <v>39.46823974544179</v>
+        <v>32.72587427495722</v>
       </c>
       <c r="G6">
-        <v>25.29622987414223</v>
+        <v>20.92230597385808</v>
       </c>
       <c r="H6">
-        <v>13.36496963886638</v>
+        <v>7.977471193349609</v>
       </c>
       <c r="I6">
-        <v>18.12227235698197</v>
+        <v>10.28318504594055</v>
       </c>
       <c r="J6">
-        <v>7.737191576554614</v>
+        <v>4.311513013546749</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.34826599877582</v>
+        <v>22.36810168358414</v>
       </c>
       <c r="C7">
-        <v>9.800034206367508</v>
+        <v>17.36924794040964</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.42620064346348</v>
+        <v>20.87400293651075</v>
       </c>
       <c r="F7">
-        <v>39.51541740141168</v>
+        <v>33.24826449217693</v>
       </c>
       <c r="G7">
-        <v>25.25321896891759</v>
+        <v>21.1583340764095</v>
       </c>
       <c r="H7">
-        <v>13.33568684531633</v>
+        <v>7.946365002386963</v>
       </c>
       <c r="I7">
-        <v>18.05835392964152</v>
+        <v>10.12793534291113</v>
       </c>
       <c r="J7">
-        <v>7.725392117046284</v>
+        <v>4.286830176313949</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.36466689852039</v>
+        <v>24.58208950395254</v>
       </c>
       <c r="C8">
-        <v>10.73113941484857</v>
+        <v>19.07888159640633</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.79005041176231</v>
+        <v>22.57913350386335</v>
       </c>
       <c r="F8">
-        <v>39.75397495066562</v>
+        <v>35.55223920523496</v>
       </c>
       <c r="G8">
-        <v>25.1064203436458</v>
+        <v>22.33477345689701</v>
       </c>
       <c r="H8">
-        <v>13.21597467713905</v>
+        <v>7.843261885444108</v>
       </c>
       <c r="I8">
-        <v>17.79141836377424</v>
+        <v>9.487941550025759</v>
       </c>
       <c r="J8">
-        <v>7.676389617447153</v>
+        <v>4.185160291052345</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.18460746713687</v>
+        <v>28.46664002687653</v>
       </c>
       <c r="C9">
-        <v>12.36371520886841</v>
+        <v>22.0882047391453</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>24.51682878744608</v>
+        <v>25.68018753070685</v>
       </c>
       <c r="F9">
-        <v>40.32866664121408</v>
+        <v>40.0380084132167</v>
       </c>
       <c r="G9">
-        <v>24.97759491964827</v>
+        <v>25.11982214377423</v>
       </c>
       <c r="H9">
-        <v>13.01575120956964</v>
+        <v>7.785496979927771</v>
       </c>
       <c r="I9">
-        <v>17.32244981053342</v>
+        <v>8.440640148556341</v>
       </c>
       <c r="J9">
-        <v>7.59130512821139</v>
+        <v>4.014891262609754</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.40752784326486</v>
+        <v>31.05079308332353</v>
       </c>
       <c r="C10">
-        <v>13.43119624613443</v>
+        <v>24.09722202124407</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>25.05464145929913</v>
+        <v>27.80566921780722</v>
       </c>
       <c r="F10">
-        <v>40.81348072246748</v>
+        <v>43.29974850328405</v>
       </c>
       <c r="G10">
-        <v>24.98336997222192</v>
+        <v>27.5825680607921</v>
       </c>
       <c r="H10">
-        <v>12.8900408395083</v>
+        <v>7.851679874164021</v>
       </c>
       <c r="I10">
-        <v>17.01126391411006</v>
+        <v>7.858447083331233</v>
       </c>
       <c r="J10">
-        <v>7.535495671474464</v>
+        <v>3.911056301579765</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.93775795488071</v>
+        <v>32.16995944432396</v>
       </c>
       <c r="C11">
-        <v>13.88843278109591</v>
+        <v>24.96918294475623</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25.29924879046634</v>
+        <v>28.73950072531677</v>
       </c>
       <c r="F11">
-        <v>41.04696450701441</v>
+        <v>44.77562596917792</v>
       </c>
       <c r="G11">
-        <v>25.0083762489916</v>
+        <v>28.78890737650424</v>
       </c>
       <c r="H11">
-        <v>12.83757338746085</v>
+        <v>7.909804046697085</v>
       </c>
       <c r="I11">
-        <v>16.87698195274308</v>
+        <v>7.652530791035675</v>
       </c>
       <c r="J11">
-        <v>7.511560258710674</v>
+        <v>3.869394804175102</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.13470827436996</v>
+        <v>32.58584693832017</v>
       </c>
       <c r="C12">
-        <v>14.05751860134321</v>
+        <v>25.29351109829156</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>25.39179507691565</v>
+        <v>29.08843542473099</v>
       </c>
       <c r="F12">
-        <v>41.13717648037725</v>
+        <v>45.33347279542729</v>
       </c>
       <c r="G12">
-        <v>25.02109775610104</v>
+        <v>29.25207278772587</v>
       </c>
       <c r="H12">
-        <v>12.81839042604793</v>
+        <v>7.936198399362356</v>
       </c>
       <c r="I12">
-        <v>16.82718376689859</v>
+        <v>7.584925110025605</v>
       </c>
       <c r="J12">
-        <v>7.502705395558404</v>
+        <v>3.854516136651267</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.09246331103429</v>
+        <v>32.49662699201374</v>
       </c>
       <c r="C13">
-        <v>14.02128319407013</v>
+        <v>25.22391918482857</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>25.37186835940546</v>
+        <v>29.01349296825209</v>
       </c>
       <c r="F13">
-        <v>41.11766887077396</v>
+        <v>45.21337363648551</v>
       </c>
       <c r="G13">
-        <v>25.01821286764853</v>
+        <v>29.15203902022408</v>
       </c>
       <c r="H13">
-        <v>12.8224912310275</v>
+        <v>7.930313399991455</v>
       </c>
       <c r="I13">
-        <v>16.83786184890942</v>
+        <v>7.598990959197217</v>
       </c>
       <c r="J13">
-        <v>7.504603153775339</v>
+        <v>3.857678915957697</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.95403849412775</v>
+        <v>32.20433226370599</v>
       </c>
       <c r="C14">
-        <v>13.90242482555253</v>
+        <v>24.99598212441448</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25.30686467780005</v>
+        <v>28.7683011721554</v>
       </c>
       <c r="F14">
-        <v>41.05435067253769</v>
+        <v>44.82154010368219</v>
       </c>
       <c r="G14">
-        <v>25.00935751470596</v>
+        <v>28.82688490768048</v>
       </c>
       <c r="H14">
-        <v>12.83598141959448</v>
+        <v>7.911885673202419</v>
       </c>
       <c r="I14">
-        <v>16.87286392294353</v>
+        <v>7.646749178554328</v>
       </c>
       <c r="J14">
-        <v>7.510827575416883</v>
+        <v>3.868152135275503</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.86874743416448</v>
+        <v>32.02426829132271</v>
       </c>
       <c r="C15">
-        <v>13.8290925199544</v>
+        <v>24.85560565158625</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>25.26703528595321</v>
+        <v>28.61750654252698</v>
       </c>
       <c r="F15">
-        <v>41.01579846470557</v>
+        <v>44.581400959258</v>
       </c>
       <c r="G15">
-        <v>25.00435773622098</v>
+        <v>28.62854593083728</v>
       </c>
       <c r="H15">
-        <v>12.84433400183832</v>
+        <v>7.901179419232468</v>
       </c>
       <c r="I15">
-        <v>16.89444079163945</v>
+        <v>7.677413895328061</v>
       </c>
       <c r="J15">
-        <v>7.514667428684361</v>
+        <v>3.874687281505532</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.3723435027261</v>
+        <v>30.97653436171798</v>
       </c>
       <c r="C16">
-        <v>13.4007456103532</v>
+        <v>24.0394071193037</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>25.03864845574547</v>
+        <v>27.74398049843446</v>
       </c>
       <c r="F16">
-        <v>40.7984770155357</v>
+        <v>43.20314316249502</v>
       </c>
       <c r="G16">
-        <v>24.98218920422526</v>
+        <v>27.50462050031588</v>
       </c>
       <c r="H16">
-        <v>12.89356524096795</v>
+        <v>7.848475720538984</v>
       </c>
       <c r="I16">
-        <v>17.02018641688262</v>
+        <v>7.87324578072359</v>
       </c>
       <c r="J16">
-        <v>7.537089142823626</v>
+        <v>3.913899033144066</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.06106901266788</v>
+        <v>30.31947406404623</v>
       </c>
       <c r="C17">
-        <v>13.13071710528637</v>
+        <v>23.52806510679836</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>24.89847515627588</v>
+        <v>27.19966533876458</v>
       </c>
       <c r="F17">
-        <v>40.66842734474772</v>
+        <v>42.3556346784976</v>
       </c>
       <c r="G17">
-        <v>24.97434854899977</v>
+        <v>26.82647576089446</v>
       </c>
       <c r="H17">
-        <v>12.92498038798724</v>
+        <v>7.823575742829828</v>
       </c>
       <c r="I17">
-        <v>17.09919470117226</v>
+        <v>8.009735264108976</v>
       </c>
       <c r="J17">
-        <v>7.55121622789921</v>
+        <v>3.939445742193305</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.8795811012832</v>
+        <v>29.93623143065044</v>
       </c>
       <c r="C18">
-        <v>12.972732749594</v>
+        <v>23.2299950024215</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24.81785119381329</v>
+        <v>26.88347074392646</v>
       </c>
       <c r="F18">
-        <v>40.5948482545371</v>
+        <v>41.86741254019173</v>
       </c>
       <c r="G18">
-        <v>24.9719437835512</v>
+        <v>26.44062644301982</v>
       </c>
       <c r="H18">
-        <v>12.9434932956913</v>
+        <v>7.811870357549722</v>
       </c>
       <c r="I18">
-        <v>17.14532289909831</v>
+        <v>8.093654634448214</v>
       </c>
       <c r="J18">
-        <v>7.559478471885164</v>
+        <v>3.954657581537695</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.81771433036539</v>
+        <v>29.80555299978483</v>
       </c>
       <c r="C19">
-        <v>12.91878261319079</v>
+        <v>23.1283886700794</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.79055560329298</v>
+        <v>26.77587575493614</v>
       </c>
       <c r="F19">
-        <v>40.5701474020355</v>
+        <v>41.70197773326909</v>
       </c>
       <c r="G19">
-        <v>24.97148991208572</v>
+        <v>26.31071062444326</v>
       </c>
       <c r="H19">
-        <v>12.94983745787398</v>
+        <v>7.808345484076527</v>
       </c>
       <c r="I19">
-        <v>17.16105857479113</v>
+        <v>8.122945004428894</v>
       </c>
       <c r="J19">
-        <v>7.562299405285511</v>
+        <v>3.959894321133964</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.09445906231415</v>
+        <v>30.38996841746723</v>
       </c>
       <c r="C20">
-        <v>13.15973841026464</v>
+        <v>23.5829069903286</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>24.91339738690441</v>
+        <v>27.25793107905296</v>
       </c>
       <c r="F20">
-        <v>40.68214532744297</v>
+        <v>42.44593148413373</v>
       </c>
       <c r="G20">
-        <v>24.97496506759913</v>
+        <v>26.89823155510128</v>
       </c>
       <c r="H20">
-        <v>12.92159021750803</v>
+        <v>7.825952988450951</v>
       </c>
       <c r="I20">
-        <v>17.09071323462723</v>
+        <v>7.994632518380261</v>
       </c>
       <c r="J20">
-        <v>7.549698225311439</v>
+        <v>3.936671983572719</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.99480193629631</v>
+        <v>32.29039955706553</v>
       </c>
       <c r="C21">
-        <v>13.93744643531196</v>
+        <v>25.06309049731766</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>25.32596062467507</v>
+        <v>28.84044637674725</v>
       </c>
       <c r="F21">
-        <v>41.07290053007516</v>
+        <v>44.93665780297675</v>
       </c>
       <c r="G21">
-        <v>25.01187005825841</v>
+        <v>28.9222180716662</v>
       </c>
       <c r="H21">
-        <v>12.83200037019549</v>
+        <v>7.917176592888967</v>
       </c>
       <c r="I21">
-        <v>16.86255438691141</v>
+        <v>7.632423541154952</v>
       </c>
       <c r="J21">
-        <v>7.508993640080643</v>
+        <v>3.865050697540827</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.56083839169995</v>
+        <v>33.48639909585619</v>
       </c>
       <c r="C22">
-        <v>14.42206938895016</v>
+        <v>25.99638440483308</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.59508787123381</v>
+        <v>29.84745746364219</v>
       </c>
       <c r="F22">
-        <v>41.33872182182154</v>
+        <v>46.55858979726967</v>
       </c>
       <c r="G22">
-        <v>25.05495489382851</v>
+        <v>30.28209870108802</v>
       </c>
       <c r="H22">
-        <v>12.77744604356255</v>
+        <v>8.002505123782726</v>
       </c>
       <c r="I22">
-        <v>16.71957085541739</v>
+        <v>7.457199923116438</v>
       </c>
       <c r="J22">
-        <v>7.483608864072858</v>
+        <v>3.823529411413062</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.2608069130902</v>
+        <v>32.85221684604662</v>
       </c>
       <c r="C23">
-        <v>14.16557496098377</v>
+        <v>25.50132694060131</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>25.45152015172026</v>
+        <v>29.31245574960192</v>
       </c>
       <c r="F23">
-        <v>41.19591491592674</v>
+        <v>45.69340820425001</v>
       </c>
       <c r="G23">
-        <v>25.0302155539773</v>
+        <v>29.55289783104808</v>
       </c>
       <c r="H23">
-        <v>12.80619464768323</v>
+        <v>7.954497310993173</v>
       </c>
       <c r="I23">
-        <v>16.79532107474123</v>
+        <v>7.544400566644027</v>
       </c>
       <c r="J23">
-        <v>7.497045714910502</v>
+        <v>3.845170713347303</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.07937130101378</v>
+        <v>30.35811503433182</v>
       </c>
       <c r="C24">
-        <v>13.14662641858979</v>
+        <v>23.55812573531676</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24.90665115434684</v>
+        <v>27.23159929825491</v>
       </c>
       <c r="F24">
-        <v>40.67593972152665</v>
+        <v>42.40511135127091</v>
       </c>
       <c r="G24">
-        <v>24.97467979184872</v>
+        <v>26.86577821563151</v>
       </c>
       <c r="H24">
-        <v>12.92312150637319</v>
+        <v>7.824870133409209</v>
       </c>
       <c r="I24">
-        <v>17.09454550907922</v>
+        <v>8.001443635547782</v>
       </c>
       <c r="J24">
-        <v>7.55038407697084</v>
+        <v>3.937924372624503</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.71180009634475</v>
+        <v>27.46383359063259</v>
       </c>
       <c r="C25">
-        <v>11.94532545952756</v>
+        <v>21.31014301785085</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24.31923391612025</v>
+        <v>24.86797265892472</v>
       </c>
       <c r="F25">
-        <v>40.1619980372956</v>
+        <v>38.82985071834683</v>
       </c>
       <c r="G25">
-        <v>24.99503138413772</v>
+        <v>24.31630118169521</v>
       </c>
       <c r="H25">
-        <v>13.06618522581426</v>
+        <v>7.783555107773076</v>
       </c>
       <c r="I25">
-        <v>17.44347100764977</v>
+        <v>8.696334386443709</v>
       </c>
       <c r="J25">
-        <v>7.61314518528953</v>
+        <v>4.057507514407603</v>
       </c>
       <c r="K25">
         <v>0</v>
